--- a/biology/Zoologie/Euselachii/Euselachii.xlsx
+++ b/biology/Zoologie/Euselachii/Euselachii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Euselachii forment une infra-classe qui regroupe tous les requins et raies.
 </t>
@@ -511,7 +523,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Sur les 14 ordres qui le composent, 8 appartiennent aux requins, 6 aux raies, sans qu'un taxon intermédiaire ne sépare requins de raies. Pour cette raison, certains auteurs ont séparé Euselachii en deux :
 super-ordre Selachimorpha correspondant aux ordres de requins ;
@@ -545,7 +559,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines familles de Carcharhiniformes sont de type vivipare placentaire (ou vivipare gestant), c'est-à-dire qu'ils possèdent un placenta vitellin comme celui des mammifères évolués.
 </t>
@@ -576,7 +592,9 @@
           <t>Liste des super-ordres et ordres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">super-ordre Selachimorpha (requins) :
 Carcharhiniformes (Requin-marteau, Roussette...)
@@ -637,7 +655,9 @@
           <t>Référence taxinomique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(fr + en) Référence ITIS : Euselachii</t>
         </is>
